--- a/package_hub/template/deployment.xlsx
+++ b/package_hub/template/deployment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>操作系统[必填]</t>
   </si>
   <si>
-    <t>是否执行初始化</t>
-  </si>
-  <si>
     <t>运行用户</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>operate_system</t>
-  </si>
-  <si>
-    <t>init_host</t>
   </si>
   <si>
     <t>run_user</t>
@@ -160,35 +154,6 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否，缺省为否</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>仅当用户名为</t>
     </r>
     <r>
@@ -232,9 +197,6 @@
     <t>CentOS</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>common</t>
   </si>
   <si>
@@ -278,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,13 +295,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +311,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +340,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -383,38 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,60 +434,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,91 +478,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,91 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,44 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,26 +730,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,157 +751,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,9 +963,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
@@ -1346,11 +1300,10 @@
     <col min="6" max="6" width="13.2" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.9333333333333" customWidth="1"/>
-    <col min="10" max="10" width="23.8" customWidth="1"/>
+    <col min="9" max="9" width="23.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:10">
+    <row r="1" ht="15.2" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1378,152 +1331,134 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" ht="15.2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="15.2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+    </row>
+    <row r="3" ht="14.4" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="16" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10" t="s">
+    </row>
+    <row r="5" ht="15.2" spans="1:9">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="12">
         <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3 H1:H4"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"CentOS,RedHat"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"是, 否"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1552,60 +1487,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="14.8" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="7"/>

--- a/package_hub/template/deployment.xlsx
+++ b/package_hub/template/deployment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="28800" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="1" r:id="rId1"/>
@@ -15,30 +15,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
   <si>
-    <t>实例名[必填]</t>
-  </si>
-  <si>
-    <t>IP[必填]</t>
-  </si>
-  <si>
-    <t>端口[必填]</t>
-  </si>
-  <si>
-    <t>用户名[必填]</t>
-  </si>
-  <si>
-    <t>密码[必填]</t>
-  </si>
-  <si>
-    <t>数据分区[必填]</t>
-  </si>
-  <si>
-    <t>操作系统[必填]</t>
+    <r>
+      <t>实例名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
   </si>
   <si>
     <t>运行用户</t>
@@ -176,28 +253,130 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>示例数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请勿编辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>omp-110</t>
+  </si>
+  <si>
+    <t>192.168.100.100</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>omp123,./</t>
+  </si>
+  <si>
+    <t>/data</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>实例数据</t>
+  </si>
+  <si>
+    <r>
+      <t>主机实例名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>服务名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <t>运行内存</t>
+  </si>
+  <si>
+    <t>虚拟IP</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>长字符</t>
+  </si>
+  <si>
+    <t>节点信息中主机实例名</t>
+  </si>
+  <si>
+    <t>应用商店中服务名称</t>
+  </si>
+  <si>
+    <t>内存空间格式</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>多个角色，英文逗号分隔</t>
+  </si>
+  <si>
+    <t>预留字段</t>
+  </si>
+  <si>
     <t>示例数据(请勿编辑)</t>
   </si>
   <si>
-    <t>omp-110</t>
-  </si>
-  <si>
-    <t>192.168.100.100</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>omp123,./</t>
-  </si>
-  <si>
-    <t>/data</t>
-  </si>
-  <si>
-    <t>CentOS</t>
-  </si>
-  <si>
-    <t>common</t>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>2g</t>
   </si>
   <si>
     <r>
@@ -209,30 +388,6 @@
       </rPr>
       <t>实例数据</t>
     </r>
-  </si>
-  <si>
-    <t>主机实例名[必填]</t>
-  </si>
-  <si>
-    <t>服务名[必填]</t>
-  </si>
-  <si>
-    <t>运行内存</t>
-  </si>
-  <si>
-    <t>节点信息中主机实例名</t>
-  </si>
-  <si>
-    <t>应用商店中服务名称</t>
-  </si>
-  <si>
-    <t>内存空间格式</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>2g</t>
   </si>
 </sst>
 </file>
@@ -240,12 +395,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,7 +416,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -290,11 +445,114 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -304,46 +562,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,88 +606,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -450,6 +623,12 @@
       <name val="Verdana Regular"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -460,13 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF30B8B2"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,115 +657,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,67 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,69 +878,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -785,6 +901,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -795,157 +941,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,11 +1139,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1286,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
@@ -1303,8 +1484,8 @@
     <col min="9" max="9" width="23.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1333,36 +1514,36 @@
       </c>
     </row>
     <row r="2" ht="15.2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1391,16 +1572,16 @@
       </c>
     </row>
     <row r="4" ht="16" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1412,7 +1593,7 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1420,36 +1601,36 @@
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>22</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1468,21 +1649,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="13.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="24.9333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.46666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:4">
+    <row r="1" ht="16" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1495,8 +1679,17 @@
       <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" ht="14.4" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1509,38 +1702,59 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:4">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" ht="15.2" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="15.2" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="14.8" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="7"/>

--- a/package_hub/template/deployment.xlsx
+++ b/package_hub/template/deployment.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niuenli/Documents/omp_open/package_hub/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45387BC0-F124-D440-B8BE-24036C2D53A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="1" r:id="rId1"/>
     <sheet name="服务分布" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
@@ -28,6 +34,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -42,6 +49,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -56,6 +64,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -70,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -84,6 +94,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -98,6 +109,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -112,6 +124,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -171,7 +184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IP</t>
     </r>
@@ -180,7 +193,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>地址</t>
     </r>
@@ -197,7 +209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>以 /</t>
     </r>
@@ -206,7 +217,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -215,7 +226,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>开头</t>
     </r>
@@ -229,7 +239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>仅当用户名为</t>
     </r>
@@ -238,7 +247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana Regular"/>
-        <charset val="134"/>
       </rPr>
       <t>root</t>
     </r>
@@ -247,7 +255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>时生效</t>
     </r>
@@ -261,7 +268,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(</t>
     </r>
@@ -270,7 +277,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>请勿编辑</t>
     </r>
@@ -279,7 +285,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -317,6 +323,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -331,6 +338,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -384,23 +392,42 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>实例数据</t>
     </r>
+  </si>
+  <si>
+    <t>时间同步服务器</t>
+  </si>
+  <si>
+    <t>ntpd_server</t>
+  </si>
+  <si>
+    <r>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+  </si>
+  <si>
+    <t>127.0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,225 +439,102 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="方正书宋_GBK"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,13 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,194 +559,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -876,255 +594,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,62 +622,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1459,32 +897,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.2" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="23.8" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:9">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +950,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="15.2" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1541,8 +982,11 @@
       <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1570,8 +1014,11 @@
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="16" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1599,8 +1046,11 @@
       <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:9">
+      <c r="J4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1628,45 +1078,48 @@
       <c r="I5" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="J5" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="J6" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"CentOS,RedHat"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="13.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="24.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.46666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:7">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="15.2" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -1752,87 +1205,87 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" ht="14.8" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" ht="14.8" spans="2:3">
+    <row r="6" spans="1:7">
       <c r="B6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" ht="14.8" spans="2:3">
+    <row r="7" spans="1:7">
       <c r="B7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" ht="14.8" spans="2:3">
+    <row r="8" spans="1:7">
       <c r="B8"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" ht="14.8" spans="2:3">
+    <row r="9" spans="1:7">
       <c r="B9"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" ht="14.8" spans="2:3">
+    <row r="10" spans="1:7">
       <c r="B10"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" ht="14.8" spans="2:3">
+    <row r="11" spans="1:7">
       <c r="B11"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" ht="14.8" spans="2:3">
+    <row r="12" spans="1:7">
       <c r="B12"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" ht="14.8" spans="2:3">
+    <row r="13" spans="1:7">
       <c r="B13"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" ht="14.8" spans="2:3">
+    <row r="14" spans="1:7">
       <c r="B14"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" ht="14.8" spans="2:3">
+    <row r="15" spans="1:7">
       <c r="B15"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" ht="14.8" spans="2:3">
+    <row r="16" spans="1:7">
       <c r="B16"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" ht="14.8" spans="2:3">
+    <row r="17" spans="2:3">
       <c r="B17"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" ht="14.8" spans="2:3">
+    <row r="18" spans="2:3">
       <c r="B18"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" ht="14.8" spans="2:3">
+    <row r="19" spans="2:3">
       <c r="B19"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" ht="14.8" spans="2:3">
+    <row r="20" spans="2:3">
       <c r="B20"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" ht="14.8" spans="2:3">
+    <row r="21" spans="2:3">
       <c r="B21"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" ht="14.8" spans="2:3">
+    <row r="22" spans="2:3">
       <c r="B22"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" ht="14.8" spans="2:3">
+    <row r="23" spans="2:3">
       <c r="B23"/>
       <c r="C23" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>